--- a/output/piaseczno/2024/sheets/year_2024.xlsx
+++ b/output/piaseczno/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29.77741935483871</v>
+        <v>38.98762924853906</v>
       </c>
       <c r="C2" t="n">
-        <v>33.66774193548387</v>
+        <v>40.40745578119466</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>41.44137931034483</v>
+        <v>43.51829669480971</v>
       </c>
       <c r="C3" t="n">
-        <v>39.32413793103448</v>
+        <v>42.22307044202104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.74838709677419</v>
+        <v>44.40500525927573</v>
       </c>
       <c r="C4" t="n">
-        <v>42.15161290322581</v>
+        <v>42.91094080249547</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>36.26333333333333</v>
+        <v>41.91831500712009</v>
       </c>
       <c r="C5" t="n">
-        <v>40.59333333333333</v>
+        <v>43.16920990088924</v>
       </c>
     </row>
   </sheetData>
